--- a/5/1/2/Agregados promedios 1985 a 2021 - Anual.xlsx
+++ b/5/1/2/Agregados promedios 1985 a 2021 - Anual.xlsx
@@ -564,7 +564,7 @@
         <v>6267</v>
       </c>
       <c r="I2">
-        <v>6248</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -639,7 +639,7 @@
         <v>1372</v>
       </c>
       <c r="E5">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="F5">
         <v>5407</v>
@@ -651,7 +651,7 @@
         <v>10251</v>
       </c>
       <c r="I5">
-        <v>10201</v>
+        <v>10202</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -767,7 +767,7 @@
         <v>17153</v>
       </c>
       <c r="I9">
-        <v>17074</v>
+        <v>17075</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -790,7 +790,7 @@
         <v>9172</v>
       </c>
       <c r="G10">
-        <v>9140</v>
+        <v>9141</v>
       </c>
       <c r="H10">
         <v>18856</v>
@@ -854,7 +854,7 @@
         <v>23370</v>
       </c>
       <c r="I12">
-        <v>23248</v>
+        <v>23247</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -877,13 +877,13 @@
         <v>14074</v>
       </c>
       <c r="G13">
-        <v>14065</v>
+        <v>14067</v>
       </c>
       <c r="H13">
         <v>26578</v>
       </c>
       <c r="I13">
-        <v>26440</v>
+        <v>26444</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -912,7 +912,7 @@
         <v>27027</v>
       </c>
       <c r="I14">
-        <v>26917</v>
+        <v>26915</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -923,7 +923,7 @@
         <v>854</v>
       </c>
       <c r="C15">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D15">
         <v>2935</v>
@@ -941,7 +941,7 @@
         <v>29527</v>
       </c>
       <c r="I15">
-        <v>29384</v>
+        <v>29386</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -970,7 +970,7 @@
         <v>31592</v>
       </c>
       <c r="I16">
-        <v>31384</v>
+        <v>31385</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -993,13 +993,13 @@
         <v>17011</v>
       </c>
       <c r="G17">
-        <v>16965</v>
+        <v>16964</v>
       </c>
       <c r="H17">
         <v>33956</v>
       </c>
       <c r="I17">
-        <v>33817</v>
+        <v>33815</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1016,19 +1016,19 @@
         <v>3627</v>
       </c>
       <c r="E18">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="F18">
         <v>17937</v>
       </c>
       <c r="G18">
-        <v>17872</v>
+        <v>17871</v>
       </c>
       <c r="H18">
         <v>35105</v>
       </c>
       <c r="I18">
-        <v>34906</v>
+        <v>34903</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1039,25 +1039,25 @@
         <v>988</v>
       </c>
       <c r="C19">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D19">
         <v>4220</v>
       </c>
       <c r="E19">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="F19">
         <v>17326</v>
       </c>
       <c r="G19">
-        <v>17226</v>
+        <v>17228</v>
       </c>
       <c r="H19">
         <v>36016</v>
       </c>
       <c r="I19">
-        <v>35820</v>
+        <v>35825</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1068,7 +1068,7 @@
         <v>1112</v>
       </c>
       <c r="C20">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D20">
         <v>5112</v>
@@ -1103,19 +1103,19 @@
         <v>5485</v>
       </c>
       <c r="E21">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="F21">
         <v>24019</v>
       </c>
       <c r="G21">
-        <v>23821</v>
+        <v>23820</v>
       </c>
       <c r="H21">
         <v>42456</v>
       </c>
       <c r="I21">
-        <v>42135</v>
+        <v>42133</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1144,7 +1144,7 @@
         <v>45886</v>
       </c>
       <c r="I22">
-        <v>45496</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1167,13 +1167,13 @@
         <v>30832</v>
       </c>
       <c r="G23">
-        <v>30555</v>
+        <v>30554</v>
       </c>
       <c r="H23">
         <v>49193</v>
       </c>
       <c r="I23">
-        <v>48875</v>
+        <v>48871</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1190,19 +1190,19 @@
         <v>6604</v>
       </c>
       <c r="E24">
-        <v>6420</v>
+        <v>6421</v>
       </c>
       <c r="F24">
         <v>33701</v>
       </c>
       <c r="G24">
-        <v>33341</v>
+        <v>33344</v>
       </c>
       <c r="H24">
         <v>54264</v>
       </c>
       <c r="I24">
-        <v>53859</v>
+        <v>53866</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1225,13 +1225,13 @@
         <v>33710</v>
       </c>
       <c r="G25">
-        <v>33467</v>
+        <v>33465</v>
       </c>
       <c r="H25">
         <v>55624</v>
       </c>
       <c r="I25">
-        <v>55366</v>
+        <v>55360</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1260,7 +1260,7 @@
         <v>60383</v>
       </c>
       <c r="I26">
-        <v>60155</v>
+        <v>60158</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1289,7 +1289,7 @@
         <v>69901</v>
       </c>
       <c r="I27">
-        <v>69616</v>
+        <v>69618</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1300,25 +1300,25 @@
         <v>2392</v>
       </c>
       <c r="C28">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D28">
         <v>11166</v>
       </c>
       <c r="E28">
-        <v>10876</v>
+        <v>10877</v>
       </c>
       <c r="F28">
         <v>46672</v>
       </c>
       <c r="G28">
-        <v>46330</v>
+        <v>46331</v>
       </c>
       <c r="H28">
         <v>75249</v>
       </c>
       <c r="I28">
-        <v>75161</v>
+        <v>75163</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1341,13 +1341,13 @@
         <v>50386</v>
       </c>
       <c r="G29">
-        <v>49923</v>
+        <v>49924</v>
       </c>
       <c r="H29">
         <v>81611</v>
       </c>
       <c r="I29">
-        <v>81364</v>
+        <v>81365</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1358,25 +1358,25 @@
         <v>2734</v>
       </c>
       <c r="C30">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D30">
         <v>13504</v>
       </c>
       <c r="E30">
-        <v>13038</v>
+        <v>13041</v>
       </c>
       <c r="F30">
         <v>52830</v>
       </c>
       <c r="G30">
-        <v>52198</v>
+        <v>52205</v>
       </c>
       <c r="H30">
         <v>86809</v>
       </c>
       <c r="I30">
-        <v>86533</v>
+        <v>86551</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1393,7 +1393,7 @@
         <v>14303</v>
       </c>
       <c r="E31">
-        <v>13845</v>
+        <v>13846</v>
       </c>
       <c r="F31">
         <v>56139</v>
@@ -1405,7 +1405,7 @@
         <v>93214</v>
       </c>
       <c r="I31">
-        <v>93025</v>
+        <v>93016</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1422,19 +1422,19 @@
         <v>14510</v>
       </c>
       <c r="E32">
-        <v>14086</v>
+        <v>14087</v>
       </c>
       <c r="F32">
         <v>58716</v>
       </c>
       <c r="G32">
-        <v>57803</v>
+        <v>57804</v>
       </c>
       <c r="H32">
         <v>98249</v>
       </c>
       <c r="I32">
-        <v>97801</v>
+        <v>97792</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1445,13 +1445,13 @@
         <v>3082</v>
       </c>
       <c r="C33">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D33">
         <v>15653</v>
       </c>
       <c r="E33">
-        <v>15153</v>
+        <v>15152</v>
       </c>
       <c r="F33">
         <v>60217</v>
@@ -1463,7 +1463,7 @@
         <v>100900</v>
       </c>
       <c r="I33">
-        <v>100425</v>
+        <v>100405</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1474,25 +1474,25 @@
         <v>3110</v>
       </c>
       <c r="C34">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="D34">
         <v>16729</v>
       </c>
       <c r="E34">
-        <v>16268</v>
+        <v>16264</v>
       </c>
       <c r="F34">
         <v>64961</v>
       </c>
       <c r="G34">
-        <v>64049</v>
+        <v>64044</v>
       </c>
       <c r="H34">
         <v>109083</v>
       </c>
       <c r="I34">
-        <v>108859</v>
+        <v>108822</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1503,25 +1503,25 @@
         <v>3380</v>
       </c>
       <c r="C35">
-        <v>3316</v>
+        <v>3322</v>
       </c>
       <c r="D35">
         <v>19470</v>
       </c>
       <c r="E35">
-        <v>19034</v>
+        <v>19027</v>
       </c>
       <c r="F35">
         <v>69582</v>
       </c>
       <c r="G35">
-        <v>68628</v>
+        <v>68619</v>
       </c>
       <c r="H35">
         <v>117290</v>
       </c>
       <c r="I35">
-        <v>116890</v>
+        <v>116841</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1532,25 +1532,25 @@
         <v>5175</v>
       </c>
       <c r="C36">
-        <v>5092</v>
+        <v>5102</v>
       </c>
       <c r="D36">
         <v>29142</v>
       </c>
       <c r="E36">
-        <v>28403</v>
+        <v>28390</v>
       </c>
       <c r="F36">
         <v>71009</v>
       </c>
       <c r="G36">
-        <v>70222</v>
+        <v>70212</v>
       </c>
       <c r="H36">
         <v>118919</v>
       </c>
       <c r="I36">
-        <v>118771</v>
+        <v>118723</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/2/Agregados promedios 1985 a 2021 - Anual.xlsx
+++ b/5/1/2/Agregados promedios 1985 a 2021 - Anual.xlsx
@@ -546,7 +546,7 @@
         <v>378</v>
       </c>
       <c r="C2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D2">
         <v>1072</v>
@@ -558,7 +558,7 @@
         <v>3753</v>
       </c>
       <c r="G2">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="H2">
         <v>6267</v>
@@ -732,7 +732,7 @@
         <v>7550</v>
       </c>
       <c r="G8">
-        <v>7523</v>
+        <v>7522</v>
       </c>
       <c r="H8">
         <v>15260</v>
@@ -761,13 +761,13 @@
         <v>8440</v>
       </c>
       <c r="G9">
-        <v>8415</v>
+        <v>8416</v>
       </c>
       <c r="H9">
         <v>17153</v>
       </c>
       <c r="I9">
-        <v>17075</v>
+        <v>17076</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -790,7 +790,7 @@
         <v>9172</v>
       </c>
       <c r="G10">
-        <v>9141</v>
+        <v>9142</v>
       </c>
       <c r="H10">
         <v>18856</v>
@@ -819,13 +819,13 @@
         <v>10517</v>
       </c>
       <c r="G11">
-        <v>10499</v>
+        <v>10501</v>
       </c>
       <c r="H11">
         <v>20959</v>
       </c>
       <c r="I11">
-        <v>20838</v>
+        <v>20839</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -848,7 +848,7 @@
         <v>12135</v>
       </c>
       <c r="G12">
-        <v>12138</v>
+        <v>12140</v>
       </c>
       <c r="H12">
         <v>23370</v>
@@ -877,13 +877,13 @@
         <v>14074</v>
       </c>
       <c r="G13">
-        <v>14067</v>
+        <v>14072</v>
       </c>
       <c r="H13">
         <v>26578</v>
       </c>
       <c r="I13">
-        <v>26444</v>
+        <v>26445</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -906,7 +906,7 @@
         <v>14458</v>
       </c>
       <c r="G14">
-        <v>14487</v>
+        <v>14488</v>
       </c>
       <c r="H14">
         <v>27027</v>
@@ -935,7 +935,7 @@
         <v>15769</v>
       </c>
       <c r="G15">
-        <v>15757</v>
+        <v>15760</v>
       </c>
       <c r="H15">
         <v>29527</v>
@@ -964,7 +964,7 @@
         <v>16498</v>
       </c>
       <c r="G16">
-        <v>16448</v>
+        <v>16450</v>
       </c>
       <c r="H16">
         <v>31592</v>
@@ -1022,13 +1022,13 @@
         <v>17937</v>
       </c>
       <c r="G18">
-        <v>17871</v>
+        <v>17870</v>
       </c>
       <c r="H18">
         <v>35105</v>
       </c>
       <c r="I18">
-        <v>34903</v>
+        <v>34902</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1051,7 +1051,7 @@
         <v>17326</v>
       </c>
       <c r="G19">
-        <v>17228</v>
+        <v>17230</v>
       </c>
       <c r="H19">
         <v>36016</v>
@@ -1068,7 +1068,7 @@
         <v>1112</v>
       </c>
       <c r="C20">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D20">
         <v>5112</v>
@@ -1103,13 +1103,13 @@
         <v>5485</v>
       </c>
       <c r="E21">
-        <v>5331</v>
+        <v>5332</v>
       </c>
       <c r="F21">
         <v>24019</v>
       </c>
       <c r="G21">
-        <v>23820</v>
+        <v>23818</v>
       </c>
       <c r="H21">
         <v>42456</v>
@@ -1138,7 +1138,7 @@
         <v>27261</v>
       </c>
       <c r="G22">
-        <v>27017</v>
+        <v>27016</v>
       </c>
       <c r="H22">
         <v>45886</v>
@@ -1167,7 +1167,7 @@
         <v>30832</v>
       </c>
       <c r="G23">
-        <v>30554</v>
+        <v>30552</v>
       </c>
       <c r="H23">
         <v>49193</v>
@@ -1190,19 +1190,19 @@
         <v>6604</v>
       </c>
       <c r="E24">
-        <v>6421</v>
+        <v>6420</v>
       </c>
       <c r="F24">
         <v>33701</v>
       </c>
       <c r="G24">
-        <v>33344</v>
+        <v>33350</v>
       </c>
       <c r="H24">
         <v>54264</v>
       </c>
       <c r="I24">
-        <v>53866</v>
+        <v>53867</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1225,7 +1225,7 @@
         <v>33710</v>
       </c>
       <c r="G25">
-        <v>33465</v>
+        <v>33461</v>
       </c>
       <c r="H25">
         <v>55624</v>
@@ -1254,7 +1254,7 @@
         <v>36159</v>
       </c>
       <c r="G26">
-        <v>35882</v>
+        <v>35886</v>
       </c>
       <c r="H26">
         <v>60383</v>
@@ -1283,13 +1283,13 @@
         <v>42185</v>
       </c>
       <c r="G27">
-        <v>41801</v>
+        <v>41805</v>
       </c>
       <c r="H27">
         <v>69901</v>
       </c>
       <c r="I27">
-        <v>69618</v>
+        <v>69619</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1312,13 +1312,13 @@
         <v>46672</v>
       </c>
       <c r="G28">
-        <v>46331</v>
+        <v>46335</v>
       </c>
       <c r="H28">
         <v>75249</v>
       </c>
       <c r="I28">
-        <v>75163</v>
+        <v>75164</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1341,13 +1341,13 @@
         <v>50386</v>
       </c>
       <c r="G29">
-        <v>49924</v>
+        <v>49929</v>
       </c>
       <c r="H29">
         <v>81611</v>
       </c>
       <c r="I29">
-        <v>81365</v>
+        <v>81366</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1370,13 +1370,13 @@
         <v>52830</v>
       </c>
       <c r="G30">
-        <v>52205</v>
+        <v>52222</v>
       </c>
       <c r="H30">
         <v>86809</v>
       </c>
       <c r="I30">
-        <v>86551</v>
+        <v>86556</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1399,13 +1399,13 @@
         <v>56139</v>
       </c>
       <c r="G31">
-        <v>55527</v>
+        <v>55529</v>
       </c>
       <c r="H31">
         <v>93214</v>
       </c>
       <c r="I31">
-        <v>93016</v>
+        <v>93024</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1428,13 +1428,13 @@
         <v>58716</v>
       </c>
       <c r="G32">
-        <v>57804</v>
+        <v>57810</v>
       </c>
       <c r="H32">
         <v>98249</v>
       </c>
       <c r="I32">
-        <v>97792</v>
+        <v>97805</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1457,13 +1457,13 @@
         <v>60217</v>
       </c>
       <c r="G33">
-        <v>59272</v>
+        <v>59274</v>
       </c>
       <c r="H33">
         <v>100900</v>
       </c>
       <c r="I33">
-        <v>100405</v>
+        <v>100420</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1474,7 +1474,7 @@
         <v>3110</v>
       </c>
       <c r="C34">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="D34">
         <v>16729</v>
@@ -1486,13 +1486,13 @@
         <v>64961</v>
       </c>
       <c r="G34">
-        <v>64044</v>
+        <v>64036</v>
       </c>
       <c r="H34">
         <v>109083</v>
       </c>
       <c r="I34">
-        <v>108822</v>
+        <v>108835</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1503,25 +1503,25 @@
         <v>3380</v>
       </c>
       <c r="C35">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="D35">
         <v>19470</v>
       </c>
       <c r="E35">
-        <v>19027</v>
+        <v>19026</v>
       </c>
       <c r="F35">
         <v>69582</v>
       </c>
       <c r="G35">
-        <v>68619</v>
+        <v>68606</v>
       </c>
       <c r="H35">
         <v>117290</v>
       </c>
       <c r="I35">
-        <v>116841</v>
+        <v>116852</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1532,25 +1532,25 @@
         <v>5175</v>
       </c>
       <c r="C36">
-        <v>5102</v>
+        <v>5098</v>
       </c>
       <c r="D36">
         <v>29142</v>
       </c>
       <c r="E36">
-        <v>28390</v>
+        <v>28387</v>
       </c>
       <c r="F36">
         <v>71009</v>
       </c>
       <c r="G36">
-        <v>70212</v>
+        <v>70192</v>
       </c>
       <c r="H36">
         <v>118919</v>
       </c>
       <c r="I36">
-        <v>118723</v>
+        <v>118726</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/2/Agregados promedios 1985 a 2021 - Anual.xlsx
+++ b/5/1/2/Agregados promedios 1985 a 2021 - Anual.xlsx
@@ -593,7 +593,7 @@
         <v>7251</v>
       </c>
       <c r="I3">
-        <v>7237</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,7 +622,7 @@
         <v>8528</v>
       </c>
       <c r="I4">
-        <v>8490</v>
+        <v>8491</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>1372</v>
       </c>
       <c r="E5">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F5">
         <v>5407</v>
@@ -697,19 +697,19 @@
         <v>1527</v>
       </c>
       <c r="E7">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F7">
         <v>6467</v>
       </c>
       <c r="G7">
-        <v>6420</v>
+        <v>6419</v>
       </c>
       <c r="H7">
         <v>13432</v>
       </c>
       <c r="I7">
-        <v>13358</v>
+        <v>13357</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,13 +726,13 @@
         <v>1760</v>
       </c>
       <c r="E8">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="F8">
         <v>7550</v>
       </c>
       <c r="G8">
-        <v>7522</v>
+        <v>7523</v>
       </c>
       <c r="H8">
         <v>15260</v>
@@ -755,19 +755,19 @@
         <v>1917</v>
       </c>
       <c r="E9">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="F9">
         <v>8440</v>
       </c>
       <c r="G9">
-        <v>8416</v>
+        <v>8417</v>
       </c>
       <c r="H9">
         <v>17153</v>
       </c>
       <c r="I9">
-        <v>17076</v>
+        <v>17075</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -825,7 +825,7 @@
         <v>20959</v>
       </c>
       <c r="I11">
-        <v>20839</v>
+        <v>20837</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -848,13 +848,13 @@
         <v>12135</v>
       </c>
       <c r="G12">
-        <v>12140</v>
+        <v>12138</v>
       </c>
       <c r="H12">
         <v>23370</v>
       </c>
       <c r="I12">
-        <v>23247</v>
+        <v>23245</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -877,13 +877,13 @@
         <v>14074</v>
       </c>
       <c r="G13">
-        <v>14072</v>
+        <v>14070</v>
       </c>
       <c r="H13">
         <v>26578</v>
       </c>
       <c r="I13">
-        <v>26445</v>
+        <v>26442</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -906,13 +906,13 @@
         <v>14458</v>
       </c>
       <c r="G14">
-        <v>14488</v>
+        <v>14489</v>
       </c>
       <c r="H14">
         <v>27027</v>
       </c>
       <c r="I14">
-        <v>26915</v>
+        <v>26916</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -923,7 +923,7 @@
         <v>854</v>
       </c>
       <c r="C15">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D15">
         <v>2935</v>
@@ -958,19 +958,19 @@
         <v>2883</v>
       </c>
       <c r="E16">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="F16">
         <v>16498</v>
       </c>
       <c r="G16">
-        <v>16450</v>
+        <v>16448</v>
       </c>
       <c r="H16">
         <v>31592</v>
       </c>
       <c r="I16">
-        <v>31385</v>
+        <v>31384</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -993,13 +993,13 @@
         <v>17011</v>
       </c>
       <c r="G17">
-        <v>16964</v>
+        <v>16966</v>
       </c>
       <c r="H17">
         <v>33956</v>
       </c>
       <c r="I17">
-        <v>33815</v>
+        <v>33817</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1016,19 +1016,19 @@
         <v>3627</v>
       </c>
       <c r="E18">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="F18">
         <v>17937</v>
       </c>
       <c r="G18">
-        <v>17870</v>
+        <v>17868</v>
       </c>
       <c r="H18">
         <v>35105</v>
       </c>
       <c r="I18">
-        <v>34902</v>
+        <v>34901</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1045,19 +1045,19 @@
         <v>4220</v>
       </c>
       <c r="E19">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="F19">
         <v>17326</v>
       </c>
       <c r="G19">
-        <v>17230</v>
+        <v>17228</v>
       </c>
       <c r="H19">
         <v>36016</v>
       </c>
       <c r="I19">
-        <v>35825</v>
+        <v>35824</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1080,13 +1080,13 @@
         <v>20081</v>
       </c>
       <c r="G20">
-        <v>19981</v>
+        <v>19982</v>
       </c>
       <c r="H20">
         <v>38888</v>
       </c>
       <c r="I20">
-        <v>38693</v>
+        <v>38694</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1097,19 +1097,19 @@
         <v>1242</v>
       </c>
       <c r="C21">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D21">
         <v>5485</v>
       </c>
       <c r="E21">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="F21">
         <v>24019</v>
       </c>
       <c r="G21">
-        <v>23818</v>
+        <v>23819</v>
       </c>
       <c r="H21">
         <v>42456</v>
@@ -1132,19 +1132,19 @@
         <v>6054</v>
       </c>
       <c r="E22">
-        <v>5860</v>
+        <v>5859</v>
       </c>
       <c r="F22">
         <v>27261</v>
       </c>
       <c r="G22">
-        <v>27016</v>
+        <v>27015</v>
       </c>
       <c r="H22">
         <v>45886</v>
       </c>
       <c r="I22">
-        <v>45495</v>
+        <v>45494</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1161,19 +1161,19 @@
         <v>6628</v>
       </c>
       <c r="E23">
-        <v>6445</v>
+        <v>6447</v>
       </c>
       <c r="F23">
         <v>30832</v>
       </c>
       <c r="G23">
-        <v>30552</v>
+        <v>30555</v>
       </c>
       <c r="H23">
         <v>49193</v>
       </c>
       <c r="I23">
-        <v>48871</v>
+        <v>48873</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1196,13 +1196,13 @@
         <v>33701</v>
       </c>
       <c r="G24">
-        <v>33350</v>
+        <v>33345</v>
       </c>
       <c r="H24">
         <v>54264</v>
       </c>
       <c r="I24">
-        <v>53867</v>
+        <v>53863</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1225,13 +1225,13 @@
         <v>33710</v>
       </c>
       <c r="G25">
-        <v>33461</v>
+        <v>33464</v>
       </c>
       <c r="H25">
         <v>55624</v>
       </c>
       <c r="I25">
-        <v>55360</v>
+        <v>55362</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1248,19 +1248,19 @@
         <v>9706</v>
       </c>
       <c r="E26">
-        <v>9543</v>
+        <v>9544</v>
       </c>
       <c r="F26">
         <v>36159</v>
       </c>
       <c r="G26">
-        <v>35886</v>
+        <v>35884</v>
       </c>
       <c r="H26">
         <v>60383</v>
       </c>
       <c r="I26">
-        <v>60158</v>
+        <v>60157</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1283,13 +1283,13 @@
         <v>42185</v>
       </c>
       <c r="G27">
-        <v>41805</v>
+        <v>41800</v>
       </c>
       <c r="H27">
         <v>69901</v>
       </c>
       <c r="I27">
-        <v>69619</v>
+        <v>69616</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1306,13 +1306,13 @@
         <v>11166</v>
       </c>
       <c r="E28">
-        <v>10877</v>
+        <v>10879</v>
       </c>
       <c r="F28">
         <v>46672</v>
       </c>
       <c r="G28">
-        <v>46335</v>
+        <v>46332</v>
       </c>
       <c r="H28">
         <v>75249</v>
@@ -1329,25 +1329,25 @@
         <v>2598</v>
       </c>
       <c r="C29">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="D29">
         <v>12239</v>
       </c>
       <c r="E29">
-        <v>11937</v>
+        <v>11933</v>
       </c>
       <c r="F29">
         <v>50386</v>
       </c>
       <c r="G29">
-        <v>49929</v>
+        <v>49912</v>
       </c>
       <c r="H29">
         <v>81611</v>
       </c>
       <c r="I29">
-        <v>81366</v>
+        <v>81360</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1358,25 +1358,25 @@
         <v>2734</v>
       </c>
       <c r="C30">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D30">
         <v>13504</v>
       </c>
       <c r="E30">
-        <v>13041</v>
+        <v>13039</v>
       </c>
       <c r="F30">
         <v>52830</v>
       </c>
       <c r="G30">
-        <v>52222</v>
+        <v>52201</v>
       </c>
       <c r="H30">
         <v>86809</v>
       </c>
       <c r="I30">
-        <v>86556</v>
+        <v>86549</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1393,13 +1393,13 @@
         <v>14303</v>
       </c>
       <c r="E31">
-        <v>13846</v>
+        <v>13847</v>
       </c>
       <c r="F31">
         <v>56139</v>
       </c>
       <c r="G31">
-        <v>55529</v>
+        <v>55515</v>
       </c>
       <c r="H31">
         <v>93214</v>
@@ -1422,19 +1422,19 @@
         <v>14510</v>
       </c>
       <c r="E32">
-        <v>14087</v>
+        <v>14085</v>
       </c>
       <c r="F32">
         <v>58716</v>
       </c>
       <c r="G32">
-        <v>57810</v>
+        <v>57788</v>
       </c>
       <c r="H32">
         <v>98249</v>
       </c>
       <c r="I32">
-        <v>97805</v>
+        <v>97799</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1445,25 +1445,25 @@
         <v>3082</v>
       </c>
       <c r="C33">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="D33">
         <v>15653</v>
       </c>
       <c r="E33">
-        <v>15152</v>
+        <v>15149</v>
       </c>
       <c r="F33">
         <v>60217</v>
       </c>
       <c r="G33">
-        <v>59274</v>
+        <v>59250</v>
       </c>
       <c r="H33">
         <v>100900</v>
       </c>
       <c r="I33">
-        <v>100420</v>
+        <v>100411</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1474,25 +1474,25 @@
         <v>3110</v>
       </c>
       <c r="C34">
-        <v>3031</v>
+        <v>3036</v>
       </c>
       <c r="D34">
         <v>16729</v>
       </c>
       <c r="E34">
-        <v>16264</v>
+        <v>16272</v>
       </c>
       <c r="F34">
         <v>64961</v>
       </c>
       <c r="G34">
-        <v>64036</v>
+        <v>64028</v>
       </c>
       <c r="H34">
         <v>109083</v>
       </c>
       <c r="I34">
-        <v>108835</v>
+        <v>108839</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1503,25 +1503,25 @@
         <v>3380</v>
       </c>
       <c r="C35">
-        <v>3320</v>
+        <v>3329</v>
       </c>
       <c r="D35">
         <v>19470</v>
       </c>
       <c r="E35">
-        <v>19026</v>
+        <v>19039</v>
       </c>
       <c r="F35">
         <v>69582</v>
       </c>
       <c r="G35">
-        <v>68606</v>
+        <v>68594</v>
       </c>
       <c r="H35">
         <v>117290</v>
       </c>
       <c r="I35">
-        <v>116852</v>
+        <v>116854</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1532,25 +1532,25 @@
         <v>5175</v>
       </c>
       <c r="C36">
-        <v>5098</v>
+        <v>5123</v>
       </c>
       <c r="D36">
         <v>29142</v>
       </c>
       <c r="E36">
-        <v>28387</v>
+        <v>28442</v>
       </c>
       <c r="F36">
         <v>71009</v>
       </c>
       <c r="G36">
-        <v>70192</v>
+        <v>70218</v>
       </c>
       <c r="H36">
         <v>118919</v>
       </c>
       <c r="I36">
-        <v>118726</v>
+        <v>118753</v>
       </c>
     </row>
   </sheetData>
